--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.316</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.311</v>
+        <v>17.837</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.614</v>
+        <v>-0.977</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.268</v>
+        <v>24.646</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.554</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.082</v>
+        <v>7.743</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.40860090718838</v>
+        <v>5.775047281486202</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.47705915852631</v>
+        <v>12.59573042070827</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.80778597910114</v>
+        <v>17.62011798784946</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8.763656097330482</v>
+        <v>-7.032786338881131</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.63434459998003</v>
+        <v>15.50897529395946</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.03392396063106</v>
+        <v>21.9577299779661</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.02024212230148</v>
+        <v>-5.573561664996895</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.66070796024386</v>
+        <v>29.95917875988645</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39.53981111724329</v>
+        <v>32.95552113363872</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38.80292982365764</v>
+        <v>28.05023105697931</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43.29758099142371</v>
+        <v>35.23048744634344</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>46.23607205850979</v>
+        <v>38.41479242794822</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.75872649531102</v>
+        <v>7.521575413115706</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>41.55123618569606</v>
+        <v>27.07471524328836</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>46.0246132180751</v>
+        <v>36.64376833714628</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.3880669870879</v>
+        <v>17.506705882512</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.7233252032642</v>
+        <v>34.52040265893368</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.12049567202377</v>
+        <v>41.73203944714786</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.53177584129197</v>
+        <v>6.330209694550952</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.46021072105844</v>
+        <v>27.6564189960823</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37.99398080443719</v>
+        <v>42.5470613124183</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19.91347177267432</v>
+        <v>6.568610263498194</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>39.7504460419323</v>
+        <v>46.02608527219321</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>45.75935154889228</v>
+        <v>64.04680133837539</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>44.59639376474594</v>
+        <v>43.04811941709895</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>49.21573066476043</v>
+        <v>54.05541451540177</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>52.24175988122808</v>
+        <v>63.17070360369693</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.74890509577176</v>
+        <v>19.03677495782581</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.82117033517787</v>
+        <v>60.60547760400366</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>52.30558640545292</v>
+        <v>69.62955723217985</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.95659747519361</v>
+        <v>23.46503207971924</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.3119011025902</v>
+        <v>42.80688441880086</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46.69562663940621</v>
+        <v>51.76786919355698</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.14823818779383</v>
+        <v>8.203869705137102</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.13443311249442</v>
+        <v>40.82300863321959</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48.59734349138746</v>
+        <v>52.74042307983107</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.78617710047236</v>
+        <v>10.33251791083257</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>50.70456136162806</v>
+        <v>63.32442256264748</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>56.68521127832155</v>
+        <v>75.7657651102698</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>56.47505281167207</v>
+        <v>72.48711679118807</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>61.02634473153425</v>
+        <v>81.68507485267114</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>64.06473838616611</v>
+        <v>91.99210600749609</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>42.26108369760799</v>
+        <v>29.13961533503008</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>59.37735476352753</v>
+        <v>80.64854711229665</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>63.87435953175627</v>
+        <v>90.13164119001439</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.84767096983053</v>
+        <v>12.61850027622211</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.154757861246</v>
+        <v>36.08647544698085</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.37450324213114</v>
+        <v>40.93676330109765</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.34594538703467</v>
+        <v>5.781945142104099</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.50184124266949</v>
+        <v>42.1510268708411</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.74420212595543</v>
+        <v>47.64340995410416</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.63768861421778</v>
+        <v>6.948469610904176</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.50541346471662</v>
+        <v>63.5202935481438</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.24390809354659</v>
+        <v>64.79863061669712</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.46378151838107</v>
+        <v>62.67904609926595</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.98564926463421</v>
+        <v>71.66822446204787</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.82616689234524</v>
+        <v>69.77503919304334</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.16158005128152</v>
+        <v>14.56530054296116</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>43.18164661559542</v>
+        <v>57.86921087485366</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>47.50342848121087</v>
+        <v>62.97050964482023</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.35045360733928</v>
+        <v>11.6549583707342</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.91725285142654</v>
+        <v>39.900723405117</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.19134420554361</v>
+        <v>45.15419644280622</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>15.61399754167777</v>
+        <v>2.980047665777768</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.816676389705</v>
+        <v>33.52477002724192</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.18430014588225</v>
+        <v>45.7898312901738</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.0298135389147</v>
+        <v>4.037929605431636</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.08881938922982</v>
+        <v>57.81399815844413</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.94614720239836</v>
+        <v>72.49293811843509</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>45.7552525649455</v>
+        <v>55.1367318191864</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>50.39838326349468</v>
+        <v>67.92886548534213</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>53.32178056334985</v>
+        <v>70.89157941833375</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.65943171103852</v>
+        <v>12.68044760795156</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>48.94963290856208</v>
+        <v>69.47966889111498</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>53.28007507673679</v>
+        <v>73.73552060582804</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.82525021476872</v>
+        <v>14.27037036118814</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.4031570816162</v>
+        <v>45.72075233948346</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.67297557533431</v>
+        <v>52.70301241975719</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.12635733800153</v>
+        <v>0.6538417386474364</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.38739610631361</v>
+        <v>44.42905181023213</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>49.68612356380608</v>
+        <v>53.12000128398854</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.79561794868038</v>
+        <v>4.251100778385371</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>51.9240493239227</v>
+        <v>72.4571539019345</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>57.76166530121019</v>
+        <v>81.7755784890129</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>57.51621076990286</v>
+        <v>79.25196565380762</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>62.09109544172966</v>
+        <v>91.00304784052474</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>65.03236607370218</v>
+        <v>95.14265183575279</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>43.06525880484963</v>
+        <v>15.63170917735562</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>60.3951021862214</v>
+        <v>86.93293636600831</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>64.7392693363356</v>
+        <v>90.20957407352671</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.14567957415838</v>
+        <v>21.50981435664855</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.44874118327167</v>
+        <v>38.14100476488395</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.63090015389021</v>
+        <v>40.98185996232142</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.56853275329498</v>
+        <v>7.051977804645766</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.7459708075982</v>
+        <v>45.29289546606206</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.94132946196721</v>
+        <v>47.15419483137632</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.87293563848261</v>
+        <v>8.377108410758417</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.74486247712576</v>
+        <v>65.97820683837139</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>41.4500112737718</v>
+        <v>61.76834257981927</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>40.69153258033374</v>
+        <v>61.92629940702719</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>45.21399592461967</v>
+        <v>71.48734173226896</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>48.04280653617288</v>
+        <v>70.37583052002481</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.39438795064065</v>
+        <v>24.15694593353184</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>43.40847321027955</v>
+        <v>57.1854101865117</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>47.7080057384669</v>
+        <v>59.8227487721425</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.83243721896769</v>
+        <v>23.29472468317159</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.39785069205637</v>
+        <v>46.06044572293516</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.63386432388443</v>
+        <v>48.28720276614164</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>16.02560098532847</v>
+        <v>6.597678313609556</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>34.25430415083533</v>
+        <v>41.64772992194981</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.57283730632791</v>
+        <v>48.21513753389207</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>21.45490817147473</v>
+        <v>8.070779039830008</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>41.52124263273532</v>
+        <v>65.4543708235133</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.344445733974</v>
+        <v>72.85866188542806</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>46.17481606385572</v>
+        <v>60.16000605251234</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>50.81911443883864</v>
+        <v>72.02140132541399</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>53.73002518802964</v>
+        <v>74.45792096174031</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.0808973876465</v>
+        <v>25.61234134487157</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>49.36744795418354</v>
+        <v>73.02143193681064</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>53.67572593376023</v>
+        <v>73.79990783973687</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.25032411493445</v>
+        <v>24.98354172731457</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.82695444450056</v>
+        <v>50.78870556717661</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.05930701110387</v>
+        <v>54.68739221018706</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>26.4812813132591</v>
+        <v>3.951272453187137</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>44.76656183201976</v>
+        <v>52.03431879917395</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>50.01784890954228</v>
+        <v>54.88155685927791</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>32.16395457684386</v>
+        <v>7.423708580627313</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>52.29927277402255</v>
+        <v>78.97006346321379</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>58.10371037547182</v>
+        <v>81.60198592535971</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>57.8792339822935</v>
+        <v>83.70701459781452</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>62.45504582853808</v>
+        <v>93.41817378673349</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>65.3850155691984</v>
+        <v>97.86628110509298</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>43.43123867521454</v>
+        <v>28.47726862340185</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>60.75686348086178</v>
+        <v>90.33498139076656</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>65.07951178442678</v>
+        <v>90.70982377869282</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.565248672154702</v>
+        <v>9.962248998919826</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.54262322277446</v>
+        <v>17.78698744247635</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.83696544209349</v>
+        <v>21.54447656769771</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>7.838609103665554</v>
+        <v>-2.009647482612301</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.61407761772778</v>
+        <v>20.01922371015605</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.97033015906396</v>
+        <v>24.12891362492395</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>13.05162707541775</v>
+        <v>-0.1876519803068035</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.57514111395441</v>
+        <v>32.94458946665018</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>38.41713854829894</v>
+        <v>36.55279357980198</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>37.68851517352616</v>
+        <v>29.74701991321346</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.16900424149014</v>
+        <v>35.37211322268602</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>45.08714919427503</v>
+        <v>42.3989754214851</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>23.76469893747158</v>
+        <v>21.41998024740037</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>40.468137151192</v>
+        <v>40.12465821782303</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>44.89867933143211</v>
+        <v>49.86635143799027</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15.49891319243174</v>
+        <v>18.46150310518704</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30.74222416795526</v>
+        <v>35.06465836792166</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.10182754661203</v>
+        <v>41.32773266923787</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>13.5613494487239</v>
+        <v>8.089576714453024</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.39466738997302</v>
+        <v>28.56040033697665</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.88428531659053</v>
+        <v>41.37863473034543</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18.89806432596616</v>
+        <v>8.142610355466367</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>38.61784619685803</v>
+        <v>43.59162410086049</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>44.58797641577061</v>
+        <v>62.44205660022434</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>43.43279146867109</v>
+        <v>38.01251580346599</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>48.03756469279044</v>
+        <v>48.37867867221784</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>51.04155397420563</v>
+        <v>60.89114848177639</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.70085506895006</v>
+        <v>25.27678074062477</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.68314981745412</v>
+        <v>62.88602450456438</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>51.1243952643159</v>
+        <v>71.91160967176364</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.99806612945819</v>
+        <v>25.54631311067957</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.2594081673933</v>
+        <v>43.70955767620828</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.60628389119728</v>
+        <v>52.05576116683117</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.0933100830668</v>
+        <v>8.921977394360916</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.98426770337018</v>
+        <v>39.83769961627454</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.40199516688921</v>
+        <v>49.3580357906063</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.68723598700415</v>
+        <v>11.92703160528658</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>49.48613714596455</v>
+        <v>60.03803467196943</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.42961173285702</v>
+        <v>73.91419571838412</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.22081345230278</v>
+        <v>66.35309503018945</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>59.75800654800097</v>
+        <v>74.90169025540354</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>62.77689506409914</v>
+        <v>89.21123979735353</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>41.12616902143452</v>
+        <v>35.23249314851839</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>58.15042319227351</v>
+        <v>81.60840419249519</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>62.60441812242782</v>
+        <v>91.82179271377618</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.53806027347323</v>
+        <v>24.99266863110314</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.68418603787038</v>
+        <v>41.34342448246503</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>35.92523829731635</v>
+        <v>41.1109733785668</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>13.95042531302864</v>
+        <v>7.220552749096903</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.91632510058787</v>
+        <v>46.85488507315524</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>37.21183754898161</v>
+        <v>47.41446646904348</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.23874575550587</v>
+        <v>10.57103314336266</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>38.94504437213872</v>
+        <v>66.89115327902132</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>44.73179332638544</v>
+        <v>63.71051483027876</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>44.00216266779369</v>
+        <v>61.26655908310077</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>48.49278068934591</v>
+        <v>68.44824535235807</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>51.39114091620033</v>
+        <v>68.69593731094369</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.91150433804541</v>
+        <v>31.41939539670913</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>46.70187922391931</v>
+        <v>53.1146303455403</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>51.09815805479557</v>
+        <v>57.53044675887165</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21.48624073528138</v>
+        <v>31.60876721821973</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.8921232832681</v>
+        <v>54.3802867945143</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>42.19501019250986</v>
+        <v>54.2082251195416</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19.68019663276126</v>
+        <v>12.07920940215161</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>37.69832169761758</v>
+        <v>47.94386877119977</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>43.12315435589259</v>
+        <v>53.78486721449321</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.09389778466568</v>
+        <v>14.3901256120403</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>44.99030762937498</v>
+        <v>70.96098759979679</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>50.90154955934958</v>
+        <v>79.55291458283747</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>49.75503791393686</v>
+        <v>66.57672249015693</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>54.36835666602325</v>
+        <v>75.91133671485971</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>57.35168134762895</v>
+        <v>80.5275150002839</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.86568035279294</v>
+        <v>39.56380566626576</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>52.93150606233091</v>
+        <v>78.66939076031096</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>57.33600569517708</v>
+        <v>80.72858427180128</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>30.68643643781718</v>
+        <v>29.35034750240565</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>46.10836168390563</v>
+        <v>53.13380238736028</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>51.3988987468982</v>
+        <v>55.65210213230615</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.9224631160045</v>
+        <v>5.565229504370571</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.99354865990935</v>
+        <v>50.70060086637202</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>53.34791087137174</v>
+        <v>54.13856279452168</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.58643747160023</v>
+        <v>9.204246613115124</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>55.55902744025381</v>
+        <v>77.49318779243825</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>61.4446971186205</v>
+        <v>82.02837269765593</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>61.24420985424813</v>
+        <v>85.11925538786875</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>65.79006572942127</v>
+        <v>92.26164828521067</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>68.78830802263272</v>
+        <v>98.45895343363009</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>46.99491350628255</v>
+        <v>39.14021298217418</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>64.10282300975578</v>
+        <v>87.96500252555674</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>68.52151350104623</v>
+        <v>90.78674043138525</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9.482808620724072</v>
+        <v>14.31981038495059</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.55503375751463</v>
+        <v>33.25444909916644</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.68556893875668</v>
+        <v>37.54307990537706</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7.875151300947351</v>
+        <v>3.92836283965844</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.80666491073244</v>
+        <v>45.29700875610906</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>30.93623946880816</v>
+        <v>46.93115988703756</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.07027286242439</v>
+        <v>6.063700734825211</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>32.6474938235656</v>
+        <v>68.83564846009355</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.28530628543788</v>
+        <v>64.17941904235144</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>37.49857359286823</v>
+        <v>58.72992871352296</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>41.95676368626245</v>
+        <v>67.15424195476825</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.75164018307814</v>
+        <v>68.36675670529132</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>23.43204357368393</v>
+        <v>13.47667085306214</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>40.13956252734108</v>
+        <v>45.13204961839973</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>44.39433940659423</v>
+        <v>51.96206280259643</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>15.49845648292951</v>
+        <v>22.09978432209255</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.83404977175319</v>
+        <v>48.308320468941</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.01725581225184</v>
+        <v>51.20052375706047</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.67082839141861</v>
+        <v>6.316349420624256</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.65831284657881</v>
+        <v>45.61715986858321</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.91115954228574</v>
+        <v>51.68551562766243</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>18.99240556205572</v>
+        <v>8.184197013477252</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.76580288307345</v>
+        <v>72.6559425545222</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>44.51930459037737</v>
+        <v>77.93302224241816</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>43.3280773309831</v>
+        <v>62.62099236741634</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>47.90876402341709</v>
+        <v>74.21596902109712</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>50.78394235186697</v>
+        <v>79.01050270275482</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.46085927775459</v>
+        <v>23.0570410505012</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>46.44387241967335</v>
+        <v>74.97913956901928</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>50.70585933839344</v>
+        <v>79.12996925169648</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.89164054146837</v>
+        <v>21.48343205954212</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.23994845615446</v>
+        <v>48.14300958222248</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>45.41907854148208</v>
+        <v>53.91539173783782</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.09184276567227</v>
+        <v>0.2723304591200488</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.13651409173677</v>
+        <v>48.77149945580783</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>47.31961969347333</v>
+        <v>52.59916295420511</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.66377164556286</v>
+        <v>5.094735161284014</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>49.50731991863445</v>
+        <v>80.1687967728376</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>55.24181372491854</v>
+        <v>81.84723945023589</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>54.98262951706388</v>
+        <v>80.80568237886115</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>59.49442396839724</v>
+        <v>91.14978438767452</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>62.38871037292304</v>
+        <v>95.91610125192472</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>40.76273219067157</v>
+        <v>22.52757530357557</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>57.78777627994045</v>
+        <v>84.62925692075655</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>62.06319227971279</v>
+        <v>89.13366901835744</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.746356863417944</v>
+        <v>2.287057553528903</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.66483358621467</v>
+        <v>5.552533225378745</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.89662772668428</v>
+        <v>9.861596702831271</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>2.036204318188485</v>
+        <v>-4.441750417337069</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.78772806290078</v>
+        <v>13.41452650940199</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.03788675111366</v>
+        <v>16.78504014788133</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>7.18033612452912</v>
+        <v>-5.530095322631077</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.60729766066697</v>
+        <v>21.84142006726464</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.34926334583952</v>
+        <v>23.06913080181429</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>31.5594451004247</v>
+        <v>27.1624454509593</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.01275846806267</v>
+        <v>32.52679488927979</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>38.84880082647202</v>
+        <v>33.09783332487911</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>17.5878550249115</v>
+        <v>3.03962632014052</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.24108937220335</v>
+        <v>17.55942147143015</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>38.57745050216874</v>
+        <v>25.38823325616207</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9.833888912130835</v>
+        <v>12.08841983485446</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.02568631206295</v>
+        <v>27.92736913489521</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.31716664830979</v>
+        <v>33.82882986962756</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>7.914615414789722</v>
+        <v>5.549884746064556</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.73077759166235</v>
+        <v>26.35586858005212</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>31.11221288097421</v>
+        <v>36.94406844439425</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>13.18541074852222</v>
+        <v>5.055962494196457</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>32.81850646155917</v>
+        <v>40.61666219278153</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>38.68341674503061</v>
+        <v>54.78332216411233</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>37.47681021885364</v>
+        <v>40.21526456992948</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.05524751479176</v>
+        <v>49.75248036688533</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>44.97409050608678</v>
+        <v>54.15042014906107</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>23.69798677224649</v>
+        <v>12.85153411089426</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>40.63191223595219</v>
+        <v>50.74526161562645</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>44.97952343486041</v>
+        <v>57.27447375103595</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>19.59603449068128</v>
+        <v>18.2390224890371</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.80439495798129</v>
+        <v>37.70994087822852</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.09171139432201</v>
+        <v>45.21922985036804</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>18.71263217432092</v>
+        <v>6.695302037287838</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.59300620757435</v>
+        <v>40.99138950705214</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>41.903218668791</v>
+        <v>48.63112319935147</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.23913345160576</v>
+        <v>9.700072396398134</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>43.94788434940828</v>
+        <v>60.26345043871948</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>49.79208724676825</v>
+        <v>69.19068183252674</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>49.52439782505993</v>
+        <v>71.25345045961075</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>54.03302960153147</v>
+        <v>80.17940541316801</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>56.96964145047858</v>
+        <v>84.67518065711226</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>35.3880917089499</v>
+        <v>25.33949544251485</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>52.36444165499398</v>
+        <v>75.67020349316087</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>56.72493457700394</v>
+        <v>83.15654335439538</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>7.680197486724545</v>
+        <v>3.861112298913447</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>22.86337601162522</v>
+        <v>4.497915688419603</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.18435305390202</v>
+        <v>10.20248005713899</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>5.971384986581228</v>
+        <v>-3.791681460012505</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>23.99409109315476</v>
+        <v>8.304776183582966</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.35811226566482</v>
+        <v>15.57155378346028</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>11.20975304477615</v>
+        <v>-4.185974101086281</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>30.98184606182658</v>
+        <v>17.32359135222431</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>36.85319068157966</v>
+        <v>23.20340420361314</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.05976444816844</v>
+        <v>14.31942605251653</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.57907384305304</v>
+        <v>20.91894114770577</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>43.52082401203405</v>
+        <v>26.86030000410086</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>21.90576923485176</v>
+        <v>3.449235325273413</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.79645934893604</v>
+        <v>8.294905861328751</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>43.24141325210145</v>
+        <v>13.27019303231715</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>13.62618978045588</v>
+        <v>1.768293274644726</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.07522911028195</v>
+        <v>7.752638328675978</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>34.45738792072724</v>
+        <v>15.08040743001371</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>11.69955102990952</v>
+        <v>-4.603483599841859</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.77777007565812</v>
+        <v>2.442695108905447</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.27222713183581</v>
+        <v>16.61996169557575</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>17.06261210523849</v>
+        <v>-6.677071009814675</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.03084925513888</v>
+        <v>13.76176958859092</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.02675538580107</v>
+        <v>33.56765773742828</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>41.81207435761247</v>
+        <v>9.749372673618588</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.45565212604029</v>
+        <v>20.27462251154905</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>49.4824931971777</v>
+        <v>31.88574361094417</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.85945110719608</v>
+        <v>-0.9889466778447726</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>45.02888192260268</v>
+        <v>19.02595295956926</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>49.4823395274381</v>
+        <v>22.66671194393874</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.14626957220437</v>
+        <v>8.286552308001184</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>38.61170553526266</v>
+        <v>16.29881945014876</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.9868659642488</v>
+        <v>28.78618666805108</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.26995563820851</v>
+        <v>-3.483147844375644</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.40542077483052</v>
+        <v>14.55444225487049</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.83148329120256</v>
+        <v>29.31098173369214</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.8900389276968</v>
+        <v>-2.987043261456357</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>47.93494694077046</v>
+        <v>30.23889856838259</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>53.91081989081992</v>
+        <v>48.98230957617469</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>53.64483276860913</v>
+        <v>37.3486694398377</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>58.22038024645348</v>
+        <v>47.81034490397955</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>61.26625985897232</v>
+        <v>62.1678073277675</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>39.32741452351293</v>
+        <v>6.645612995146827</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56.53887885098359</v>
+        <v>37.99008488684289</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>61.00831264352789</v>
+        <v>45.20358223989943</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12.83775992191605</v>
+        <v>14.79957119041598</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.04490044107189</v>
+        <v>26.92763265843121</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.25645944271322</v>
+        <v>35.26512532063686</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.42237385031283</v>
+        <v>6.157752795012449</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.52194292168414</v>
+        <v>47.2379759769124</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>34.72380089934247</v>
+        <v>48.77392196662888</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>16.70775050401591</v>
+        <v>7.837947698106809</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>36.48095313504351</v>
+        <v>65.08183286621306</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>42.19623558636156</v>
+        <v>64.1731995987779</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.46185184409303</v>
+        <v>63.80444915694731</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>45.95959380656712</v>
+        <v>73.35393299606196</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>48.78220415797358</v>
+        <v>72.47921907338511</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.24556826645065</v>
+        <v>26.9091609076065</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>44.12913987263627</v>
+        <v>56.19978661973381</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>48.45822349332283</v>
+        <v>67.42310859059523</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>18.47330443813421</v>
+        <v>12.91463549701141</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.94354592786578</v>
+        <v>31.12419458937686</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>39.20662291500926</v>
+        <v>36.45444226096593</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.82085725468628</v>
+        <v>-2.712380861181622</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.97173711774769</v>
+        <v>33.52882677675985</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>40.29606319435679</v>
+        <v>38.72939750346013</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>22.23295959678537</v>
+        <v>-1.208477031748679</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>42.20061741370319</v>
+        <v>54.72602648616789</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>48.03150178446901</v>
+        <v>62.63617817293702</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>46.88428237419289</v>
+        <v>48.46506840151876</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>51.50456344925441</v>
+        <v>59.83895029690033</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>54.40830107047568</v>
+        <v>61.64233931679684</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.87265575995355</v>
+        <v>18.59842937068945</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>50.03029980611785</v>
+        <v>62.08361603484668</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>54.36460434589542</v>
+        <v>66.36335806422386</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.92947894789135</v>
+        <v>17.1957113425996</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.41177166806181</v>
+        <v>37.69518102761808</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>48.67154803692316</v>
+        <v>45.88472524280699</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.32545256683347</v>
+        <v>-1.582925926289697</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.53362085032821</v>
+        <v>47.05764635230387</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>50.78983378914013</v>
+        <v>49.3026628143671</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>32.98583082849902</v>
+        <v>2.12435278432347</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>53.02370568461484</v>
+        <v>71.6684429153681</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>58.83561630159502</v>
+        <v>75.71293961236691</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>58.63296625676932</v>
+        <v>75.4484185437698</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>63.18406581659274</v>
+        <v>86.0090733911361</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>66.10605512085323</v>
+        <v>88.323374060242</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>44.26479340116668</v>
+        <v>25.39802991898078</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>61.46472019742551</v>
+        <v>81.69349390039091</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>65.81250168475104</v>
+        <v>87.90819163136209</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>1.073362723471526</v>
+        <v>6.108171385767641</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.90831537211662</v>
+        <v>7.395715707484278</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.15193366212533</v>
+        <v>14.57222154396943</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-0.6944545152048214</v>
+        <v>-1.944566603595455</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.91545129833692</v>
+        <v>8.358823184308086</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.20004386535443</v>
+        <v>15.50384551807955</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>4.401421466523807</v>
+        <v>-1.665730777449618</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.70742072800663</v>
+        <v>17.46912689664612</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.47615914880565</v>
+        <v>24.04451090577377</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.60376606659798</v>
+        <v>17.48184259074655</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>33.0356364911768</v>
+        <v>22.83951970318024</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>35.89406032655509</v>
+        <v>28.10684871471222</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>14.70083810808793</v>
+        <v>6.504060040581756</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.30269537904665</v>
+        <v>14.04162072325804</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>35.64121995833234</v>
+        <v>20.84068166017068</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>6.968213102160046</v>
+        <v>6.971493872010974</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.07236622499918</v>
+        <v>17.82998494966814</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.37541778352704</v>
+        <v>28.36093260703021</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>5.000214924271454</v>
+        <v>1.921171675392067</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.6709504663394</v>
+        <v>12.32866522184174</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.08582823522859</v>
+        <v>28.12370707362633</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>10.21634557722228</v>
+        <v>1.534082012579667</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.72477913743245</v>
+        <v>23.44029507629001</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.61657585350655</v>
+        <v>46.64469968674408</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>34.33380219528185</v>
+        <v>19.37687529031943</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>38.88822272476389</v>
+        <v>28.37743484232576</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>41.83022236609443</v>
+        <v>40.81656174261301</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.62384207305234</v>
+        <v>7.650012675520323</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.50021758591147</v>
+        <v>32.3605882419345</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>41.85135331125001</v>
+        <v>42.5648817485768</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.65299948073785</v>
+        <v>16.43071083562959</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.77321966675717</v>
+        <v>29.90286826344465</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>37.07672695996021</v>
+        <v>43.58848097813709</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>15.69473106112692</v>
+        <v>5.057277333479142</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.42931511996724</v>
+        <v>26.56635216429965</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>38.77760916938022</v>
+        <v>41.08250943504641</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>21.17182826308693</v>
+        <v>8.219806555592989</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>40.75428018541485</v>
+        <v>43.94206974021862</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>46.63017484741792</v>
+        <v>63.65379634102869</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>46.27597544121399</v>
+        <v>49.19984279524895</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>50.76374532107573</v>
+        <v>57.93550677206316</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>53.7250645373124</v>
+        <v>75.15692459943378</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>32.21342526143653</v>
+        <v>20.03404768380555</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>49.13098134900717</v>
+        <v>55.88236638476599</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>53.49957942741079</v>
+        <v>67.81510273040303</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.013544137683972</v>
+        <v>-6.012144923265659</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.1663459980341</v>
+        <v>2.361250521288163</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.28866557637717</v>
+        <v>6.672785314396783</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>6.311700217383031</v>
+        <v>-20.85916197209068</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.3068346456356</v>
+        <v>5.325049794752779</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.44595662442917</v>
+        <v>8.349586300450291</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.52381183211998</v>
+        <v>-21.82331120525622</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.19246314319475</v>
+        <v>19.9140865922928</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.83708275366911</v>
+        <v>15.47615265930327</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>36.05328496643008</v>
+        <v>15.9121326532486</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>40.53095345402922</v>
+        <v>19.85264801347862</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>43.33606228957613</v>
+        <v>20.62710453629473</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.91426463768288</v>
+        <v>-10.21743301908833</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.75867684952716</v>
+        <v>9.289469500182641</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>43.00364494096056</v>
+        <v>11.20361401830889</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.07921186183872</v>
+        <v>19.40600168325967</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.49518649918886</v>
+        <v>36.20358834984339</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.67127783067265</v>
+        <v>39.69801664631775</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>12.16081328052694</v>
+        <v>5.158712545709228</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.2114036481443</v>
+        <v>31.41455225033591</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.47392718120698</v>
+        <v>38.73707076896202</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>17.49916627713661</v>
+        <v>5.517030059586268</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>37.36480103655554</v>
+        <v>50.65513095268415</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>43.12671042932431</v>
+        <v>57.32782921385436</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.93865757723032</v>
+        <v>47.10424507570878</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>46.53764378808353</v>
+        <v>53.79970015444443</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.42402681329869</v>
+        <v>57.7444218081929</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>27.99695013548823</v>
+        <v>19.95892301673357</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.11481848474696</v>
+        <v>57.87621270593221</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>49.36913376256416</v>
+        <v>59.25385713175772</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.5025581011912</v>
+        <v>24.89187555502924</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.93164957490442</v>
+        <v>44.84328257929727</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.10507867742973</v>
+        <v>50.96142394030336</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>22.60857881321079</v>
+        <v>6.190268087457106</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.71827169900426</v>
+        <v>45.4735648440842</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.91261031655146</v>
+        <v>50.37792680986636</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.20043436052622</v>
+        <v>8.996431997860192</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>48.13636528480424</v>
+        <v>68.70589652044407</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>53.88057032720894</v>
+        <v>71.34455587067779</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>53.62611973240512</v>
+        <v>74.64608457248238</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>58.15780224578904</v>
+        <v>80.97944955862113</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>61.06392376343912</v>
+        <v>86.71067488758575</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>39.33203030652648</v>
+        <v>26.92886400328383</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>56.49009935195197</v>
+        <v>79.95746240963629</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>60.75899560398176</v>
+        <v>80.40391720771791</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1.315793839919532</v>
+        <v>9.464924267280232</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.16646706942728</v>
+        <v>11.16628843987346</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>21.33400698915687</v>
+        <v>16.6180845728473</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.5137385015274241</v>
+        <v>-0.03545868064468749</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>17.12910052578862</v>
+        <v>12.84707166892756</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.33150301913879</v>
+        <v>19.50063481557664</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>4.599720803461924</v>
+        <v>1.19667284383025</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.93917173506861</v>
+        <v>23.11747735272079</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.63251133737056</v>
+        <v>27.11044408627985</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.82294650832911</v>
+        <v>21.0485824283795</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.26084640346374</v>
+        <v>25.84310112056696</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>36.07572399869908</v>
+        <v>29.76198684382283</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.90478367937844</v>
+        <v>10.786643428043</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.50659045599153</v>
+        <v>16.61448776168982</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.78535915633623</v>
+        <v>21.57912138788976</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>6.844004310347419</v>
+        <v>2.98017151500688</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.95972496159195</v>
+        <v>10.82050202155754</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.18638596423194</v>
+        <v>17.65420346762122</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>4.802769796587096</v>
+        <v>-4.35935926457369</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>22.50088242327838</v>
+        <v>4.462611818279136</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.8319216200801</v>
+        <v>18.34085047510371</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>10.03266447160616</v>
+        <v>-4.985658014201071</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.56988957028393</v>
+        <v>16.19063841981561</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.38591277448386</v>
+        <v>33.92852316869423</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.16691269175535</v>
+        <v>10.56779118219627</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.72602739989093</v>
+        <v>19.18601924203893</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.6234870510278</v>
+        <v>27.65067632000302</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>20.44490822372087</v>
+        <v>2.449097827769585</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.31943280572717</v>
+        <v>22.07581924484288</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>41.61035873632299</v>
+        <v>27.55082329497268</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>16.71833420295805</v>
+        <v>17.81337745994464</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.85150323902005</v>
+        <v>28.62848150001171</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.07260217861179</v>
+        <v>36.7539438199182</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.68370167530627</v>
+        <v>1.890945173978828</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.44794454508224</v>
+        <v>24.03241042498158</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>38.70897836403441</v>
+        <v>33.74639834715905</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>21.1814173038345</v>
+        <v>6.576934877601964</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>40.79466735513638</v>
+        <v>43.13513773176346</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>46.58997246913675</v>
+        <v>55.04705729791554</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>46.30595572335892</v>
+        <v>47.03609064346305</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>50.79801027085698</v>
+        <v>53.34085078336762</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>53.71557091929735</v>
+        <v>64.40730381210361</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>32.22906422087273</v>
+        <v>18.60610023708691</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.14515117058599</v>
+        <v>51.19231465533301</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>53.44790960928766</v>
+        <v>55.0406466669075</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-3.026926514279193</v>
+        <v>5.654564719285226</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.66288992986523</v>
+        <v>3.272950110955669</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.77194563485665</v>
+        <v>3.679890420682206</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-5.000477059807917</v>
+        <v>-2.462581462414271</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>12.46413623185185</v>
+        <v>4.495122192125031</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.60418003218817</v>
+        <v>4.910803128804709</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0.03164466516651032</v>
+        <v>-1.549473135749075</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.16422621381438</v>
+        <v>9.508447838296014</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.793446545802</v>
+        <v>5.993079559749994</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.99951443607993</v>
+        <v>6.800673132839542</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.38616711955444</v>
+        <v>7.636449685545934</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.18109549960895</v>
+        <v>8.285276795631837</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.23001806695915</v>
+        <v>4.783542337273026</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.68203583620611</v>
+        <v>2.652958188856992</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.90958248519988</v>
+        <v>2.893919793717522</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>2.712871488170098</v>
+        <v>1.882404241318262</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.66780304157201</v>
+        <v>4.654891006620211</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.8341502265291</v>
+        <v>5.781498311424777</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.5321450918423629</v>
+        <v>-4.410704571286651</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>18.05541594914057</v>
+        <v>-1.468566969743215</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.32206875979829</v>
+        <v>4.836047913527615</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.682538581665401</v>
+        <v>-5.013529788203975</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.01457677614326</v>
+        <v>4.848424270364383</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.76383617086993</v>
+        <v>13.20801743731437</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.56529267721238</v>
+        <v>0.5465245574044744</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.07294121939466</v>
+        <v>4.54301947297558</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>36.94908311494225</v>
+        <v>8.474148918639607</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>15.9875037824103</v>
+        <v>-0.4451472868327002</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.71170375104698</v>
+        <v>8.926952676174558</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.95079867161142</v>
+        <v>9.295907587170269</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>12.46512083431253</v>
+        <v>17.47590210153465</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.43505718399453</v>
+        <v>22.59667415864772</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.59660408996191</v>
+        <v>26.17512218317052</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>11.27876480826415</v>
+        <v>2.071639007999529</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.86673038918023</v>
+        <v>17.65587075826858</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>34.06400074220583</v>
+        <v>21.51017194170613</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>16.6946721338443</v>
+        <v>6.684654861819276</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.09936463828691</v>
+        <v>30.71539502116944</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>41.8290749371709</v>
+        <v>35.15434768395796</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>41.55725615919219</v>
+        <v>36.16499113502486</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>45.99759616986107</v>
+        <v>39.07735849060143</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>48.89427702031532</v>
+        <v>45.08118248094488</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.62869143021518</v>
+        <v>16.84400487919215</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>44.3916820924578</v>
+        <v>37.59390003956532</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>48.64363144247431</v>
+        <v>38.61101002031885</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.64193978708099</v>
+        <v>18.95322086332613</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.82183140545195</v>
+        <v>25.91038797490348</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.18336873613838</v>
+        <v>31.47566724040627</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>8.924720997876271</v>
+        <v>3.342092149464129</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.93746818989876</v>
+        <v>26.00574442604015</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.35110352070878</v>
+        <v>28.5831382814086</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>14.22979080771046</v>
+        <v>7.22451424584694</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.02130751388611</v>
+        <v>43.54959568632581</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.9285509667866</v>
+        <v>44.64874366651569</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>39.18648433873102</v>
+        <v>44.17525847118748</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>43.72104076162994</v>
+        <v>50.25174924925302</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>46.65985951188078</v>
+        <v>51.66929998311389</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.02982418098593</v>
+        <v>29.1914224246784</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>41.94855437493113</v>
+        <v>45.30207668054164</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>46.44037957041422</v>
+        <v>54.93667515844789</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>16.29208860151966</v>
+        <v>9.812967207792532</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.73947071114101</v>
+        <v>22.75923280794826</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>37.162993583722</v>
+        <v>28.35890697971539</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>14.35611525544367</v>
+        <v>-5.551470715512771</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>32.42468887616545</v>
+        <v>12.68294533844378</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>37.97040334189458</v>
+        <v>20.1099691045738</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>19.78078757149231</v>
+        <v>-3.89269650217161</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>39.76898344031389</v>
+        <v>31.27153533853753</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>45.80201986871735</v>
+        <v>44.00503901822388</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>44.63342568370436</v>
+        <v>29.60186687449207</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>49.293399159572</v>
+        <v>37.78918128555595</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>52.3183927480152</v>
+        <v>42.76837787844173</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>30.67913472310384</v>
+        <v>14.89282684400539</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>47.87815149914836</v>
+        <v>45.428213607914</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>52.37861937484872</v>
+        <v>52.53649753356726</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.08319274586085</v>
+        <v>20.89226209875788</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>41.54993328899015</v>
+        <v>36.5541816411714</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>46.96444567351007</v>
+        <v>44.74195584478458</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.20393307438204</v>
+        <v>1.705602960256051</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>43.33294742699648</v>
+        <v>31.86963263864818</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>48.80848767605933</v>
+        <v>37.20472475886874</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.89061670283603</v>
+        <v>5.460416147065338</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>50.95994260136293</v>
+        <v>54.94465608269565</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>56.96898857446087</v>
+        <v>63.45282674520391</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>56.76074839732721</v>
+        <v>65.65348486079864</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>61.35185510324204</v>
+        <v>72.19691751533335</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>64.3923638072625</v>
+        <v>79.60710888920028</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>42.43663248873071</v>
+        <v>30.12914486379484</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>59.67814102566896</v>
+        <v>71.28524560142165</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>64.19434069296609</v>
+        <v>80.14779007898719</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>9.593677476344066</v>
+        <v>19.08253443744039</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.62108659615674</v>
+        <v>36.3750958001341</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.78797280086246</v>
+        <v>41.25150875310911</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.99420403039024</v>
+        <v>8.817769422213992</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.81287206131387</v>
+        <v>42.35936180367916</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.02049278418821</v>
+        <v>46.00478846553893</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.19017650543292</v>
+        <v>12.78548494701628</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.70783192243039</v>
+        <v>59.20307247605417</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>38.39680788441594</v>
+        <v>61.77840907993565</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>37.60284338025716</v>
+        <v>61.9044589654439</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.05871437278466</v>
+        <v>67.63768876419422</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>44.87663589656112</v>
+        <v>68.43172842020343</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.54397191422504</v>
+        <v>21.14805221753051</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>40.31309816649331</v>
+        <v>57.51671243861242</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>44.58548339644803</v>
+        <v>62.34409420350688</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>15.00116972465534</v>
+        <v>10.87386834675232</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.28717644556603</v>
+        <v>32.78428253359565</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.50959225815792</v>
+        <v>38.4178403228232</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>13.18080717434176</v>
+        <v>-0.1188918838937454</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.04858303556113</v>
+        <v>28.07211580319714</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>36.3820294108964</v>
+        <v>38.0044012505745</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>18.49628148055163</v>
+        <v>2.340555422122613</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.20529753502495</v>
+        <v>46.15185658379858</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.01356004165972</v>
+        <v>61.91761313723419</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.81376899428949</v>
+        <v>45.58623953117317</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.38912108965613</v>
+        <v>54.80115915807014</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.28972570232447</v>
+        <v>59.01191210109233</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.95584429871432</v>
+        <v>10.81979945403967</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>45.99193061920466</v>
+        <v>58.63722789678008</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>50.27493173110873</v>
+        <v>64.74255277260235</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.40606464225206</v>
+        <v>13.60352522185747</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.70378866332688</v>
+        <v>38.77467323960901</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.92363763354284</v>
+        <v>46.64337173917182</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>23.59999163482373</v>
+        <v>-1.913727182312208</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.52615460879543</v>
+        <v>39.12172314148177</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>46.79232552113405</v>
+        <v>46.75993813259735</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.16998731318154</v>
+        <v>2.895111030087811</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>48.94816285505733</v>
+        <v>60.96395750667904</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.73841622427648</v>
+        <v>72.28455133525449</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.46954158920619</v>
+        <v>70.0305653608678</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>58.97901308688624</v>
+        <v>78.75826940726631</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>61.89749146240464</v>
+        <v>86.43326076586368</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>40.2621564118771</v>
+        <v>14.51517790253505</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>57.33604074892881</v>
+        <v>76.57790622355796</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>61.63397562082307</v>
+        <v>82.27055518294301</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>14.85661460712286</v>
+        <v>17.86031364930123</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.15323313873592</v>
+        <v>31.65799492057486</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.46649344381085</v>
+        <v>35.42251341840947</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>13.38597752280242</v>
+        <v>6.38494757855711</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.53247297451733</v>
+        <v>42.84461264810134</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.89464640266861</v>
+        <v>45.21334073200757</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>18.73713778558081</v>
+        <v>8.482936028349918</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>38.64651398053876</v>
+        <v>60.22900379385406</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>44.50308021711888</v>
+        <v>59.59600533495263</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>43.80466946017621</v>
+        <v>58.33476320670034</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.34017975788444</v>
+        <v>64.15239818328621</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>51.26355716089146</v>
+        <v>62.8432379543279</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.56991546646167</v>
+        <v>22.09378038001137</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.55278411514435</v>
+        <v>49.72589451746916</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>51.01182849480421</v>
+        <v>60.52194889510285</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>20.59970276920933</v>
+        <v>14.929984047269</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.15786576859556</v>
+        <v>35.95142123439488</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>41.53220631033549</v>
+        <v>39.34460203008795</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>18.89871628629122</v>
+        <v>1.259710318659252</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>37.09527033217657</v>
+        <v>33.19651296598852</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.58644763877938</v>
+        <v>41.59214589298859</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>24.37652005108943</v>
+        <v>1.697656736335922</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>44.47631500560289</v>
+        <v>53.6843254802017</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>50.4578004365905</v>
+        <v>65.08872203004918</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>49.33479717055229</v>
+        <v>50.41006003049976</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>53.99378394588995</v>
+        <v>58.83869536265474</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>57.00319468597363</v>
+        <v>61.99437976316208</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.30405002558759</v>
+        <v>15.83032848267838</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>52.56337542411629</v>
+        <v>61.5431864322134</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>57.03001671467275</v>
+        <v>68.34062019556993</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.02733537580883</v>
+        <v>17.49875349947275</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>45.6015804188267</v>
+        <v>40.41603211721569</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>50.96391886505173</v>
+        <v>46.40137248633523</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.38516931974657</v>
+        <v>0.1165503155132583</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.63522777114462</v>
+        <v>43.20566397554649</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>53.05700269167677</v>
+        <v>48.97101512715555</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>35.11475917170595</v>
+        <v>2.01894271072846</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>55.29145400080904</v>
+        <v>66.92497532406628</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>61.24658815823705</v>
+        <v>73.80641667586374</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>61.08110275098436</v>
+        <v>75.86376208070536</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>65.67202741668564</v>
+        <v>82.7172876004505</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>68.69502711418144</v>
+        <v>87.04645885408075</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>46.68497752687193</v>
+        <v>20.49526427933896</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>63.98782270045491</v>
+        <v>76.91975600476104</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>68.46724057603797</v>
+        <v>85.09428072793267</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>1.082251870883727</v>
+        <v>24.95373898963675</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17.11968615397814</v>
+        <v>34.25010147123991</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.68115460746399</v>
+        <v>35.57087270621464</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-0.8429054875242734</v>
+        <v>25.28528161986683</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>18.20056719019229</v>
+        <v>58.34541844435584</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.8059840855412</v>
+        <v>57.41164895889091</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>4.771591771140745</v>
+        <v>14.77166458186608</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.6461134155499</v>
+        <v>62.54754746128496</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.79303777531879</v>
+        <v>59.63638692327397</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.0901110570357</v>
+        <v>60.77524867205941</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.86128965410982</v>
+        <v>65.26123928895166</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.9414979096954</v>
+        <v>65.24810856841103</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>16.25306590223231</v>
+        <v>34.69403170753359</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>34.07562688419557</v>
+        <v>52.21682831783207</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.73598758901593</v>
+        <v>61.66808762549093</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>7.288582701830119</v>
+        <v>23.71370837625438</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.60286275420789</v>
+        <v>38.69440000234724</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.22822620518668</v>
+        <v>40.46782001531731</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>5.131759853829895</v>
+        <v>24.96770574157839</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.23131595314398</v>
+        <v>51.08226092222615</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.97145271297306</v>
+        <v>57.0706103211019</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.88015873852751</v>
+        <v>9.630298143162328</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.95637167396176</v>
+        <v>56.37201202136183</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.2343211725528</v>
+        <v>65.5699735916765</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.08718734193343</v>
+        <v>51.90847376174126</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>41.98805252200005</v>
+        <v>58.64117122926354</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>45.15778077269725</v>
+        <v>63.01499710866262</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.45735995385516</v>
+        <v>27.98330963660514</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>40.57175361621144</v>
+        <v>61.42287539616212</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>45.24150703419811</v>
+        <v>68.0638496225867</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>17.62295756359981</v>
+        <v>26.64257721138569</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.95454484382674</v>
+        <v>43.45270437820418</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.57028947976403</v>
+        <v>47.47084554970912</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>16.57514398734674</v>
+        <v>23.84560330347501</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>35.73031586713799</v>
+        <v>60.36133431090114</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>41.3988229266149</v>
+        <v>63.37490779331663</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>22.59751699129605</v>
+        <v>10.55659564376146</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.75511524087361</v>
+        <v>70.06382819040527</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>50.00845456886023</v>
+        <v>74.85181898473263</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>49.8618398249768</v>
+        <v>79.90391651670757</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>54.69274527850894</v>
+        <v>84.10243261836354</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>57.87996462879055</v>
+        <v>90.07928172296059</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.84914521902482</v>
+        <v>34.28828745477544</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>53.00758134517891</v>
+        <v>77.7910278015905</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>57.69198957140415</v>
+        <v>86.16984869358876</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>11.46231531518522</v>
+        <v>12.74278010079974</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.72615535701077</v>
+        <v>29.56459938397612</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.96634149092824</v>
+        <v>34.53756092507866</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>9.972143043611556</v>
+        <v>5.368732880585647</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.05581934082974</v>
+        <v>38.04939232976509</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>33.34527111946174</v>
+        <v>41.46162563665872</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>15.26457233246729</v>
+        <v>7.478290776085124</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>35.08878997015823</v>
+        <v>55.81774050281707</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.87161574603975</v>
+        <v>57.88357953927352</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.10111691733825</v>
+        <v>58.53350636866222</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.6185763683505</v>
+        <v>65.06333112632393</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.49481503197896</v>
+        <v>66.15048017286676</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.84887991196918</v>
+        <v>13.36385922945394</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>42.82913504887559</v>
+        <v>50.16039653554419</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>47.19681162835379</v>
+        <v>57.16001169397789</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.97409266050731</v>
+        <v>8.340394999850908</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.49682003211547</v>
+        <v>31.14541006345267</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.79331113599385</v>
+        <v>35.25581027670868</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>15.25498231359946</v>
+        <v>-0.7719008820291364</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.38740692916779</v>
+        <v>28.23337911444913</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>38.80018291929879</v>
+        <v>35.48155006972801</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>20.66992886021135</v>
+        <v>-0.5192656770497805</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>40.68394320328194</v>
+        <v>46.23744750554821</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>46.58711510303863</v>
+        <v>59.76418865947665</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>45.40300942275104</v>
+        <v>44.93445372541147</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>50.04109142109631</v>
+        <v>54.2375240011493</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>53.00073157528855</v>
+        <v>58.223913072976</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.35631307762813</v>
+        <v>5.825919740670891</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>48.60579175499443</v>
+        <v>54.58587621160533</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>52.98283995525883</v>
+        <v>61.36953417988858</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.29420946128896</v>
+        <v>10.44425092681752</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>41.8274315016882</v>
+        <v>35.06258021460815</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>47.12088632835452</v>
+        <v>42.76118658282039</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.61047725975417</v>
+        <v>-2.286486427956554</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.79521916355564</v>
+        <v>37.3209178712325</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>49.14486517875912</v>
+        <v>43.69257259999527</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>31.27756959054082</v>
+        <v>-0.503124972339883</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>51.36003245694174</v>
+        <v>59.05473620951324</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>57.24576271465705</v>
+        <v>69.56751067897</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>57.00510265973904</v>
+        <v>69.70636495444936</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>61.57703533362563</v>
+        <v>77.83983012003361</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>64.55558378495839</v>
+        <v>85.78732519773487</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>42.60584449091731</v>
+        <v>9.677175073316882</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>59.89327950715172</v>
+        <v>71.45847153424668</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>64.28770493214259</v>
+        <v>80.09704744460998</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.867542439545293</v>
+        <v>10.03817525672168</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.5502040115428</v>
+        <v>13.84035642057757</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>26.76885563425562</v>
+        <v>18.25802636543694</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>5.215297093491028</v>
+        <v>-1.619716439174589</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.63406974259106</v>
+        <v>18.38603185159986</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.9143174061802</v>
+        <v>21.69380155064199</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.30118792029624</v>
+        <v>1.488476253485324</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.43814078494701</v>
+        <v>27.11942156244991</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>35.19402320458262</v>
+        <v>31.12679936417707</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.40996559378026</v>
+        <v>27.4125143347649</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.79493139812702</v>
+        <v>31.80844025921667</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>41.68796572691244</v>
+        <v>35.15969862051802</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.69325087773247</v>
+        <v>8.658642863761237</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>37.07632704387244</v>
+        <v>21.52260971751193</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>41.46625846797293</v>
+        <v>29.19040549610867</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>12.82749538516738</v>
+        <v>12.97541908105163</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.77619656138903</v>
+        <v>27.11141770114893</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.06157509448568</v>
+        <v>34.52166053605442</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>10.9758417969145</v>
+        <v>5.18385412277312</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.4578261531007</v>
+        <v>25.24052777551604</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>33.87164113603608</v>
+        <v>37.33891666848391</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>16.1843708151654</v>
+        <v>5.879506624079546</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.51962686562484</v>
+        <v>36.58033807335989</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.40507031232708</v>
+        <v>56.07594304404257</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.20732032190789</v>
+        <v>35.56515186876232</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.71523694790083</v>
+        <v>43.84332669395693</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>47.69406927215813</v>
+        <v>53.74877842480209</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.67940909118994</v>
+        <v>12.66048964228606</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>43.33890947776578</v>
+        <v>46.27835881673207</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>47.74307909272821</v>
+        <v>56.27659005769255</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.24620383579281</v>
+        <v>18.62679593671871</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.21404475914569</v>
+        <v>35.11128404671272</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.48823403728652</v>
+        <v>44.60351958771634</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>21.4130281253889</v>
+        <v>5.766007731048326</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.95416583604349</v>
+        <v>36.85335207114768</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>44.29737529717647</v>
+        <v>46.08441157694995</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>26.87394996820363</v>
+        <v>9.282002749224638</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>46.28794511301101</v>
+        <v>53.00289970270348</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.14675988315574</v>
+        <v>67.92916394647671</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.8776415305756</v>
+        <v>62.13056714582513</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>56.31788815654298</v>
+        <v>67.93664179273446</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>59.30956100961367</v>
+        <v>80.97500785369294</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>37.99440417958952</v>
+        <v>20.20207183371796</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>54.69434794475188</v>
+        <v>63.75678889850386</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>59.11132906167077</v>
+        <v>75.76346575485255</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>0.3624515644521544</v>
+        <v>12.78045015495764</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.36897172265361</v>
+        <v>20.50513650814549</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.94289231919344</v>
+        <v>24.96816749517743</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-1.578017008691074</v>
+        <v>2.949020200739689</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>17.42712170525571</v>
+        <v>30.13872264865066</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.04801282630362</v>
+        <v>36.20423222945951</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>4.025785516863195</v>
+        <v>1.981127126203667</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>24.86558786802158</v>
+        <v>41.54594725695268</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.02534364364603</v>
+        <v>44.52844464509642</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.31642023876036</v>
+        <v>38.09767675739642</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.08400795827613</v>
+        <v>44.43295479402665</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>38.16909098000925</v>
+        <v>50.41422312682221</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>15.50314862439083</v>
+        <v>14.87682053058777</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.30439615697172</v>
+        <v>33.04327188811278</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>37.97359815834042</v>
+        <v>47.45563636104433</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>6.557603125847386</v>
+        <v>9.874342314472194</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.84197848067533</v>
+        <v>23.90423752510973</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.48072023300982</v>
+        <v>30.02835678417268</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>4.387595152841108</v>
+        <v>2.132228294022021</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.44973199257525</v>
+        <v>23.15550827143276</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.20641951653176</v>
+        <v>37.95492370294603</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>10.12474266491945</v>
+        <v>-3.303412771439575</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.16720677680452</v>
+        <v>35.75309854580909</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>37.4589201746796</v>
+        <v>52.25937475796966</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.30468593970849</v>
+        <v>30.28671697199815</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.20216770312938</v>
+        <v>38.88365388054394</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>44.37708217343157</v>
+        <v>50.23172635777528</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.69789569792261</v>
+        <v>7.293502857378435</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.79131428835969</v>
+        <v>42.26689417776286</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>44.47053471863975</v>
+        <v>54.81803250601462</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.9381676601622</v>
+        <v>12.61729324480715</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.24033317798424</v>
+        <v>28.40303661796936</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.86948827088533</v>
+        <v>36.70760093021003</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.87626886873243</v>
+        <v>-0.01771524039997274</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.9948633771012</v>
+        <v>31.31531184566661</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>40.67976627995596</v>
+        <v>43.02133803763454</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.88842815675357</v>
+        <v>-2.990621560506632</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>43.01297626704835</v>
+        <v>48.76091211654487</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>49.27993296469973</v>
+        <v>60.91406127158567</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>49.12629861655724</v>
+        <v>57.40263820672545</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.95384114469267</v>
+        <v>63.34392555352552</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>57.1461170229364</v>
+        <v>76.42564988004568</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.1362978743162</v>
+        <v>12.64323842721218</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>52.27390242564407</v>
+        <v>56.91375940148578</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>56.96778199153498</v>
+        <v>72.06121679883677</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>15.47207573465462</v>
+        <v>21.67270063326252</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.37846482537271</v>
+        <v>30.53663357153003</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.55969774216351</v>
+        <v>34.44001535947826</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>14.13380517026376</v>
+        <v>7.730070196135848</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.8707395677789</v>
+        <v>45.66582855801489</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>37.08097220003662</v>
+        <v>43.78986888634314</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.33822886583166</v>
+        <v>12.63879850538076</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>38.77697238091899</v>
+        <v>62.34107013374851</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>44.47802584612633</v>
+        <v>59.46226511286216</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>43.79605104145261</v>
+        <v>65.46458129988352</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>48.2322741505521</v>
+        <v>66.52264726484208</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>51.065690576694</v>
+        <v>66.33992619472826</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.81555640762747</v>
+        <v>29.45375640667275</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>46.41542295687451</v>
+        <v>49.19205909508342</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>50.77737600189384</v>
+        <v>61.22571877299212</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.02131103616551</v>
+        <v>23.72125508385506</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.18675926768235</v>
+        <v>37.96279818918939</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>41.42475108952285</v>
+        <v>40.55025746953374</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>19.44717682846341</v>
+        <v>5.240602873584983</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.23502768450111</v>
+        <v>37.50738373200077</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>42.57013264002419</v>
+        <v>40.72603219045323</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>24.77623244116625</v>
+        <v>7.609150897850618</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>44.40589115299004</v>
+        <v>56.62117935389512</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>50.22636712201567</v>
+        <v>63.96078139786602</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>49.12874640207782</v>
+        <v>55.48219327161227</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>53.68709367701598</v>
+        <v>58.27255236005372</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>56.60282502761598</v>
+        <v>61.71573877251482</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.34906268684446</v>
+        <v>24.00383238783571</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>52.22181459392148</v>
+        <v>59.26291330204732</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>56.58821775802477</v>
+        <v>65.12867610241597</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>30.18444565795144</v>
+        <v>24.14074797772648</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>45.36458965532005</v>
+        <v>40.45973270488361</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>50.5955819783055</v>
+        <v>45.74643340609232</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.65089256418318</v>
+        <v>1.306950204785359</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>47.49527258173158</v>
+        <v>44.78393435223303</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>52.76248208283694</v>
+        <v>45.98053965515388</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>35.22469118961838</v>
+        <v>6.466232135895901</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>54.92722348106107</v>
+        <v>68.19242348322206</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>60.72589134275684</v>
+        <v>72.0667242682643</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>60.56751784571009</v>
+        <v>79.09189282422241</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>65.0568791031653</v>
+        <v>80.42902326717027</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>67.98863156638413</v>
+        <v>84.24274415393845</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>46.43342748017691</v>
+        <v>26.34839325468969</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>63.34606688889114</v>
+        <v>72.21906724399469</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>67.7273375268875</v>
+        <v>80.62218311465196</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>12.3733196855627</v>
+        <v>12.82818980891182</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>27.62607236644712</v>
+        <v>30.24257458606591</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>32.85862639255641</v>
+        <v>33.82520308723412</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>10.91923749272617</v>
+        <v>4.766177808482475</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.98676653011767</v>
+        <v>37.15828917792448</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.26342162858349</v>
+        <v>40.44237895119975</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>16.20955595013269</v>
+        <v>6.7764625006484</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.0167428101818</v>
+        <v>55.37958193858874</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>41.79362539074645</v>
+        <v>56.27103785742066</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.03744088468194</v>
+        <v>56.64888262041524</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>45.54995116354343</v>
+        <v>65.00907594569375</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>48.42908807346221</v>
+        <v>62.52771562065568</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.80156747148227</v>
+        <v>11.27106734764596</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>43.75975114939807</v>
+        <v>49.49953872751514</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>48.12320646028192</v>
+        <v>54.66911918931468</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.88978996515169</v>
+        <v>9.744709329224669</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.40064591768618</v>
+        <v>32.99635345072048</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>38.69021902693513</v>
+        <v>35.8614698595483</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>16.20372307896332</v>
+        <v>0.2265221442149894</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.3190919068192</v>
+        <v>28.78370341566129</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>39.71981609975278</v>
+        <v>35.90069599065234</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>21.61744080158937</v>
+        <v>0.4365741010801756</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>41.61339376364861</v>
+        <v>47.8360795808826</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>47.51132452449156</v>
+        <v>59.80734027729088</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.34135543100722</v>
+        <v>45.62684784917796</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>50.97447057593435</v>
+        <v>55.89334219214667</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>53.93745583394086</v>
+        <v>57.83320255333152</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>32.31119278305828</v>
+        <v>5.893663315504945</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>49.53848134574613</v>
+        <v>56.90453279106473</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>53.91128837582455</v>
+        <v>61.01777300388259</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>27.1320153703656</v>
+        <v>10.20259455247507</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.65268846009882</v>
+        <v>34.86888255355058</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>47.93903254151886</v>
+        <v>41.65645020737498</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>26.48030212652541</v>
+        <v>-2.908542299489021</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>44.6472180985558</v>
+        <v>35.76274480972251</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>49.98420684221615</v>
+        <v>42.3949842732275</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>32.14487904148972</v>
+        <v>-1.002251755663131</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>52.20901577847084</v>
+        <v>58.39130287461203</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>58.08900797361208</v>
+        <v>68.08840144393909</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>57.86004703651323</v>
+        <v>67.48035738688336</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>62.42669319191484</v>
+        <v>76.22162480485378</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>65.40783250664855</v>
+        <v>82.69928681405489</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>43.47727514653346</v>
+        <v>7.270703869472307</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>60.74121359117132</v>
+        <v>69.58572431940237</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>65.1319800424581</v>
+        <v>76.85429354664424</v>
       </c>
     </row>
   </sheetData>
